--- a/테이블 정의.xlsx
+++ b/테이블 정의.xlsx
@@ -19,264 +19,285 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="86">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="93">
+  <x:si>
+    <x:t>학부/학과명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>avoid_time_start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수업 간 공강 시간 허용치 (분)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시간표 이름 (ex. 1순위 추천)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK (subject_class)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요일 (Mon, Tue, …)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>preferred_days_off</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK (subject 테이블)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 언어 (한국어, 영어 등)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분반 번호 ex) 01, 02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 형태 (대면/비대면/혼합)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user_selection_slot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>timetable_class_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학부/학과 코드 (PK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK (user_selection_slot)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>timetable</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATETIME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>created_at</x:t>
+  </x:si>
+  <x:si>
+    <x:t>암호화된 비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과목 마스터 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>day_of_week</x:t>
+  </x:si>
+  <x:si>
+    <x:t>end_time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>class_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prof_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 옵션 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lang_type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>class_type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>start_time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>section_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정 요일 공강 희망</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영상 강의 선호 여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>avoid_days</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK (user)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과목 코드 (PK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>슬롯 번호 (1~6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 저장 시간표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>subject_cd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user_option</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학과 코드 (FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user_slot_candidates</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공강 원하시는 요일들 (Mon,Tue…)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과목명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
+  </x:si>
   <x:si>
     <x:t>타입</x:t>
   </x:si>
   <x:si>
-    <x:t>학점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼명</x:t>
+    <x:t>강의실</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교수명</x:t>
   </x:si>
   <x:si>
     <x:t>설명</x:t>
   </x:si>
   <x:si>
-    <x:t>과목명</x:t>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dept_cd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>slot_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOOLEAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>room</x:t>
+  </x:si>
+  <x:si>
+    <x:t>credit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TIME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>slot_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작 시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종료 시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>subject</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BIGINT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생성일자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>subject_class</x:t>
   </x:si>
   <x:si>
     <x:t>과목 분반(섹션) 테이블</x:t>
   </x:si>
   <x:si>
-    <x:t>user_selection_slot</x:t>
-  </x:si>
-  <x:si>
-    <x:t>timetable_class_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교수명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의실</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user</x:t>
-  </x:si>
-  <x:si>
-    <x:t>timetable</x:t>
-  </x:si>
-  <x:si>
-    <x:t>subject_class</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시간표 이름 (ex. 1순위 추천)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATETIME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>created_at</x:t>
-  </x:si>
-  <x:si>
-    <x:t>subject</x:t>
-  </x:si>
-  <x:si>
-    <x:t>암호화된 비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과목 마스터 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수업 간 공강 시간 허용치 (분)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>preferred_days_off</x:t>
-  </x:si>
-  <x:si>
-    <x:t>avoid_time_start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 옵션 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>class_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>section_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>prof_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lang_type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>day_of_week</x:t>
-  </x:si>
-  <x:si>
-    <x:t>class_type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>start_time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>end_time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>password</x:t>
+    <x:t>avoid_time_end</x:t>
+  </x:si>
+  <x:si>
+    <x:t>피하고 싶은 시간대 시작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>max_gap_time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>subject_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>각 슬롯별 후보 과목 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK (timetable)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user_option_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일 (unique)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 과목 슬롯 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>피하고 싶은 시간대 끝</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시간표에 포함된 분반 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>candidate_id</x:t>
   </x:si>
   <x:si>
     <x:t>prefer_online</x:t>
   </x:si>
   <x:si>
-    <x:t>user_option_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>avoid_time_end</x:t>
-  </x:si>
-  <x:si>
-    <x:t>피하고 싶은 시간대 시작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>max_gap_time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>피하고 싶은 시간대 끝</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BIGINT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>room</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TIME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작 시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종료 시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>subject_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK (subject_class)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분반 번호 ex) 01, 02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK (subject 테이블)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요일 (Mon, Tue, …)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의 형태 (대면/비대면/혼합)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의 언어 (한국어, 영어 등)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>avoid_days</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK (user)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정 요일 공강 희망</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영상 강의 선호 여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일 (unique)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user_slot_candidates</x:t>
-  </x:si>
-  <x:si>
-    <x:t>credit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dept_cd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공강 원하시는 요일들 (Mon,Tue…)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOOLEAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각 슬롯별 후보 과목 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생성일자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 과목 슬롯 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK (user_selection_slot)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK (timetable)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시간표에 포함된 분반 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>candidate_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user_option</x:t>
-  </x:si>
-  <x:si>
-    <x:t>slot_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>slot_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>subject_cd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학과 코드 (FK)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과목 코드 (PK)</x:t>
+    <x:t>timetable_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>timetable_name</x:t>
   </x:si>
   <x:si>
     <x:t>timetable_class</x:t>
   </x:si>
   <x:si>
-    <x:t>timetable_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>timetable_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>슬롯 번호 (1~6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 저장 시간표</x:t>
+    <x:t>학부/학과 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캠퍼스 코드 (서울, 안성 등)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dept_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>campus_cd</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -371,13 +392,16 @@
       </x:bottom>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="6">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <x:cellXfs count="8">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -405,8 +429,14 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
   </x:cellXfs>
-  <x:cellStyles count="1">
+  <x:cellStyles count="2">
     <x:cellStyle name="표준" xfId="0" builtinId="0" iLevel="0"/>
   </x:cellStyles>
   <x:dxfs count="12">
@@ -1127,8 +1157,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B3:I46"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="E4" activeCellId="0" sqref="E4:E4"/>
+    <x:sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="L40" activeCellId="0" sqref="L40:L40"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.39999999999999857891"/>
@@ -1145,109 +1175,109 @@
   <x:sheetData>
     <x:row r="3" spans="2:9" ht="30.5" customHeight="1">
       <x:c r="B3" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C3" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D3" s="1"/>
       <x:c r="G3" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H3" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I3" s="1"/>
     </x:row>
     <x:row r="4" spans="2:9" ht="30.5" customHeight="1">
       <x:c r="B4" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C4" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D4" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G4" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H4" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I4" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:9" ht="30.5" customHeight="1">
       <x:c r="B5" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I5" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:9" ht="30.5" customHeight="1">
       <x:c r="B6" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G6" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H6" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I6" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:9" ht="30.5" customHeight="1">
       <x:c r="B7" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G7" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H7" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I7" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:4" ht="30.5" customHeight="1">
       <x:c r="B8" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="9" ht="5.25" customHeight="1"/>
@@ -1256,218 +1286,218 @@
     <x:row r="12" ht="5.25" customHeight="1"/>
     <x:row r="13" spans="2:9" ht="30.5" customHeight="1">
       <x:c r="B13" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C13" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D13" s="1"/>
       <x:c r="G13" s="3" t="s">
-        <x:v>58</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H13" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I13" s="1"/>
     </x:row>
     <x:row r="14" spans="2:9" ht="30.5" customHeight="1">
       <x:c r="B14" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C14" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D14" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G14" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H14" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I14" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:9" ht="30.5" customHeight="1">
       <x:c r="B15" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G15" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H15" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I15" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:9" ht="30.5" customHeight="1">
       <x:c r="B16" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G16" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H16" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I16" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:9" ht="30.5" customHeight="1">
       <x:c r="B17" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G17" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H17" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I17" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:4" ht="30.5" customHeight="1">
       <x:c r="B18" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:4" ht="30.5" customHeight="1">
       <x:c r="B19" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:9" ht="30.5" customHeight="1">
       <x:c r="B20" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G20" s="3" t="s">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H20" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I20" s="1"/>
     </x:row>
     <x:row r="21" spans="2:9" ht="30.5" customHeight="1">
       <x:c r="B21" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G21" s="5" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H21" s="5" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="I21" s="5" t="s">
         <x:v>50</x:v>
-      </x:c>
-      <x:c r="G21" s="5" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H21" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I21" s="5" t="s">
-        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="2:9" ht="30.5" customHeight="1">
       <x:c r="B22" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G22" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H22" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I22" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="2:9" ht="30.5" customHeight="1">
       <x:c r="B23" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G23" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H23" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I23" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="2:9" ht="30.5" customHeight="1">
       <x:c r="B24" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G24" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H24" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I24" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="7:9" ht="30.5" customHeight="1">
@@ -1478,231 +1508,274 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I25" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="26" ht="6.75" customHeight="1"/>
     <x:row r="27" ht="3.75" customHeight="1"/>
     <x:row r="28" spans="2:4" ht="30.5" customHeight="1">
       <x:c r="B28" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C28" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D28" s="1"/>
     </x:row>
     <x:row r="29" spans="2:9" ht="30.5" customHeight="1">
       <x:c r="B29" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C29" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D29" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G29" s="3" t="s">
-        <x:v>81</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H29" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I29" s="1"/>
     </x:row>
     <x:row r="30" spans="2:9" ht="30.5" customHeight="1">
       <x:c r="B30" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G30" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H30" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I30" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="2:9" ht="30.5" customHeight="1">
       <x:c r="B31" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D31" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G31" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H31" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I31" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="2:9" ht="30.5" customHeight="1">
       <x:c r="B32" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D32" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G32" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H32" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I32" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="2:9" ht="30.5" customHeight="1">
       <x:c r="B33" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D33" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G33" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H33" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I33" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="34" ht="6.75" customHeight="1"/>
     <x:row r="35" ht="8.65000000000000035527" customHeight="1"/>
     <x:row r="36" ht="0" hidden="1" customHeight="1"/>
-    <x:row r="37" spans="2:4" ht="30.5" customHeight="1">
+    <x:row r="37" spans="2:9" ht="30.5" customHeight="1">
       <x:c r="B37" s="3" t="s">
-        <x:v>75</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C37" s="4" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="D37" s="1"/>
-    </x:row>
-    <x:row r="38" spans="2:4" ht="30.5" customHeight="1">
+      <x:c r="G37" s="7" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H37" s="7" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="I37" s="6"/>
+    </x:row>
+    <x:row r="38" spans="2:9" ht="30.5" customHeight="1">
       <x:c r="B38" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C38" s="5" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D38" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G38" s="5" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H38" s="5" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="I38" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="2:9" ht="30.5" customHeight="1">
+      <x:c r="B39" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="G39" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H39" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="I39" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="2:9" ht="30.5" customHeight="1">
+      <x:c r="B40" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G40" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="H40" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="I40" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D38" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="2:4" ht="30.5" customHeight="1">
-      <x:c r="B39" s="2" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C39" s="2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="2:4" ht="30.5" customHeight="1">
-      <x:c r="B40" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="C40" s="2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D40" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="2:4" ht="30.5" customHeight="1">
+    </x:row>
+    <x:row r="41" spans="2:9" ht="30.5" customHeight="1">
       <x:c r="B41" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D41" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G41" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="H41" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="I41" s="2" t="s">
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="2:4" ht="30.5" customHeight="1">
       <x:c r="B42" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
         <x:v>2</x:v>
-      </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="2:4" ht="30.5" customHeight="1">
       <x:c r="B43" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C43" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D43" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="2:4" ht="30.5" customHeight="1">
       <x:c r="B44" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C44" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D44" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="2:4" ht="30.5" customHeight="1">
       <x:c r="B45" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C45" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D45" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="2:4" ht="30.5" customHeight="1">
       <x:c r="B46" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C46" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D46" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>